--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/151.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/151.xlsx
@@ -479,13 +479,13 @@
         <v>-12.55394580920907</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28060578062995</v>
+        <v>-11.27985951936797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5881297144169264</v>
+        <v>0.5666583377564957</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.206471154119664</v>
+        <v>-5.230220591474556</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.32238515599982</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47510503164663</v>
+        <v>-11.47747473846098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6599279032009521</v>
+        <v>0.636610511839838</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.09046025863913</v>
+        <v>-5.112979019526898</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.05515243111455</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02240256733931</v>
+        <v>-12.02595058140941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6747876669263112</v>
+        <v>0.6535519517170315</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.786574817379826</v>
+        <v>-4.809289962810221</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.74496511546354</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.7095520819873</v>
+        <v>-12.71317864987446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6868718624492244</v>
+        <v>0.6647720552523908</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.87307566225511</v>
+        <v>-4.895437315508778</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.38678906989588</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31018765945717</v>
+        <v>-13.31525438065691</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7213831727400143</v>
+        <v>0.7001736421364181</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.172951675490967</v>
+        <v>-4.198180543066973</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.96265343033259</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.59295521623276</v>
+        <v>-13.6014390284742</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8334401927623477</v>
+        <v>0.8095074631676724</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.186947347228772</v>
+        <v>-4.213537814300317</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.4755775020073</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17090183287792</v>
+        <v>-14.18009262947281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9171392848295025</v>
+        <v>0.894699077758784</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.774330330868934</v>
+        <v>-3.799127152451163</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.91351209483523</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.9615590937926</v>
+        <v>-14.9708153519017</v>
       </c>
       <c r="F9" t="n">
-        <v>1.139171648722335</v>
+        <v>1.116220841840789</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.409343112247294</v>
+        <v>-3.435134948845494</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.289390882892162</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.55775638059912</v>
+        <v>-15.56846588432365</v>
       </c>
       <c r="F10" t="n">
-        <v>1.184012785955247</v>
+        <v>1.159556364246902</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.711052047880993</v>
+        <v>-2.738545883848617</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.602119537750054</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.15957026532474</v>
+        <v>-16.17013575371802</v>
       </c>
       <c r="F11" t="n">
-        <v>1.129863021401868</v>
+        <v>1.106414707012336</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.269684334480723</v>
+        <v>-2.299207477388816</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.8793698556271</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.63162633658602</v>
+        <v>-16.64494120857605</v>
       </c>
       <c r="F12" t="n">
-        <v>1.159608733458269</v>
+        <v>1.137116157176184</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.847038614144122</v>
+        <v>-1.876928341531783</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.133928600499621</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.42875119510451</v>
+        <v>-17.44336220507587</v>
       </c>
       <c r="F13" t="n">
-        <v>1.378197821703728</v>
+        <v>1.354919707251139</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.055203045973688</v>
+        <v>-1.084542896641996</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.402660892407159</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.24216287835811</v>
+        <v>-18.25655131918117</v>
       </c>
       <c r="F14" t="n">
-        <v>1.583799345530194</v>
+        <v>1.56086163095149</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8544325818958187</v>
+        <v>-0.8804077107338033</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.704237077497651</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.0818639057179</v>
+        <v>-19.09574174673012</v>
       </c>
       <c r="F15" t="n">
-        <v>1.634466557527674</v>
+        <v>1.611947796639905</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4218759883080312</v>
+        <v>-0.4471441327925625</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.072163904079304</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.07519001462249</v>
+        <v>-20.0868028872431</v>
       </c>
       <c r="F16" t="n">
-        <v>1.95771551468989</v>
+        <v>1.935275307619172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1455836937609018</v>
+        <v>0.1191110574149317</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.522539810276085</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.78786951981185</v>
+        <v>-20.80101419186494</v>
       </c>
       <c r="F17" t="n">
-        <v>2.022470044545067</v>
+        <v>2.001574729209673</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2475334559894227</v>
+        <v>0.2242029723254668</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.077719239902684</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.69680264459868</v>
+        <v>-21.71051028567397</v>
       </c>
       <c r="F18" t="n">
-        <v>2.142500276998012</v>
+        <v>2.121604961662617</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8059332644918812</v>
+        <v>0.7815161196920621</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.747155345425504</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.70179399533526</v>
+        <v>-22.71417931382353</v>
       </c>
       <c r="F19" t="n">
-        <v>2.241635194115562</v>
+        <v>2.220504217329016</v>
       </c>
       <c r="G19" t="n">
-        <v>1.025556644661836</v>
+        <v>1.004242375635506</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.541171886412222</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.06009104720478</v>
+        <v>-23.07442711881647</v>
       </c>
       <c r="F20" t="n">
-        <v>2.542286836572959</v>
+        <v>2.521496259660298</v>
       </c>
       <c r="G20" t="n">
-        <v>1.626584991216955</v>
+        <v>1.601945277268826</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.464336759339802</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.01376057080179</v>
+        <v>-24.02593641244459</v>
       </c>
       <c r="F21" t="n">
-        <v>2.670722327450292</v>
+        <v>2.651712303724106</v>
       </c>
       <c r="G21" t="n">
-        <v>1.735617689282849</v>
+        <v>1.713674989720116</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.516561172129169</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.3535451064531</v>
+        <v>-24.3686667162353</v>
       </c>
       <c r="F22" t="n">
-        <v>2.752575404816763</v>
+        <v>2.732779842920074</v>
       </c>
       <c r="G22" t="n">
-        <v>2.004873989525787</v>
+        <v>1.982145751792551</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.696135293832485</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.89057827671786</v>
+        <v>-24.90546422504891</v>
       </c>
       <c r="F23" t="n">
-        <v>2.690386966318564</v>
+        <v>2.672790911299285</v>
       </c>
       <c r="G23" t="n">
-        <v>2.546424004270945</v>
+        <v>2.521731921111449</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.989012506356596</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.42357901770738</v>
+        <v>-25.43568939783597</v>
       </c>
       <c r="F24" t="n">
-        <v>2.574493901563605</v>
+        <v>2.558311815251232</v>
       </c>
       <c r="G24" t="n">
-        <v>2.33977509621714</v>
+        <v>2.317518181386206</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.383493269013758</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.56894285615906</v>
+        <v>-25.58145909767575</v>
       </c>
       <c r="F25" t="n">
-        <v>2.69816379420655</v>
+        <v>2.683840814897702</v>
       </c>
       <c r="G25" t="n">
-        <v>2.24928109897513</v>
+        <v>2.228411968245418</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.85130278456341</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.64576848923431</v>
+        <v>-25.65815380772258</v>
       </c>
       <c r="F26" t="n">
-        <v>2.862498379475896</v>
+        <v>2.847101831334026</v>
       </c>
       <c r="G26" t="n">
-        <v>2.250983098344554</v>
+        <v>2.230820951968296</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.374419380222308</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.40104716451676</v>
+        <v>-25.41455842104943</v>
       </c>
       <c r="F27" t="n">
-        <v>2.564098613107275</v>
+        <v>2.54980181840411</v>
       </c>
       <c r="G27" t="n">
-        <v>1.964078373870969</v>
+        <v>1.947608256896078</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.918599650259691</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.49524628346298</v>
+        <v>-25.50729120207737</v>
       </c>
       <c r="F28" t="n">
-        <v>2.830160391456832</v>
+        <v>2.815549381485466</v>
       </c>
       <c r="G28" t="n">
-        <v>1.914458546100827</v>
+        <v>1.897307629378166</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.463564377559629</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.70702737423074</v>
+        <v>-25.71706917051035</v>
       </c>
       <c r="F29" t="n">
-        <v>2.662029038363386</v>
+        <v>2.650272150411516</v>
       </c>
       <c r="G29" t="n">
-        <v>1.81435479857299</v>
+        <v>1.796706374342343</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.975280676046939</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.36438871655993</v>
+        <v>-25.37694423498515</v>
       </c>
       <c r="F30" t="n">
-        <v>2.633199787505905</v>
+        <v>2.61966234636756</v>
       </c>
       <c r="G30" t="n">
-        <v>1.942502258787805</v>
+        <v>1.922235373988813</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.43789584651574</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.59873775407295</v>
+        <v>-24.61344041016421</v>
       </c>
       <c r="F31" t="n">
-        <v>2.546397819665261</v>
+        <v>2.533331701429219</v>
       </c>
       <c r="G31" t="n">
-        <v>1.41022159445459</v>
+        <v>1.390897355460202</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.826177677953531</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.72026050904985</v>
+        <v>-24.73319570425748</v>
       </c>
       <c r="F32" t="n">
-        <v>2.52636659631742</v>
+        <v>2.513352847292745</v>
       </c>
       <c r="G32" t="n">
-        <v>1.512420110437103</v>
+        <v>1.489875164943651</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.136625706113758</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.15088935076603</v>
+        <v>-24.16497666862372</v>
       </c>
       <c r="F33" t="n">
-        <v>2.581301899041303</v>
+        <v>2.567188396577922</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7516656692129267</v>
+        <v>0.7323545225213808</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.359434308813219</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.50765141984918</v>
+        <v>-23.52184347612961</v>
       </c>
       <c r="F34" t="n">
-        <v>2.558364184462599</v>
+        <v>2.543020005532096</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6837428020700518</v>
+        <v>0.6643269169557721</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.507127594385361</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.87313296262493</v>
+        <v>-22.8901922332277</v>
       </c>
       <c r="F35" t="n">
-        <v>2.433725461409367</v>
+        <v>2.417962328787929</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7359679981056971</v>
+        <v>0.715373805735662</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.583750696946032</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.06959287571399</v>
+        <v>-22.08610226959741</v>
       </c>
       <c r="F36" t="n">
-        <v>2.289971976207215</v>
+        <v>2.275046750967647</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7508146695282145</v>
+        <v>0.7279293241608773</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.613498655994409</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.12445953356979</v>
+        <v>-21.14367903414144</v>
       </c>
       <c r="F37" t="n">
-        <v>2.331972083723472</v>
+        <v>2.316654089398652</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6900663843426055</v>
+        <v>0.667914207934405</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.608718383385645</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.99489810464807</v>
+        <v>-21.01037320660699</v>
       </c>
       <c r="F38" t="n">
-        <v>2.160148701228659</v>
+        <v>2.144725968481105</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3967595237794164</v>
+        <v>0.3758773007468633</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.599610441568055</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.14162035924141</v>
+        <v>-20.15962227564878</v>
       </c>
       <c r="F39" t="n">
-        <v>2.401073258122102</v>
+        <v>2.384786433386995</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2330664613493154</v>
+        <v>0.2130221456986328</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.599470261139537</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.62371504342841</v>
+        <v>-19.64162531371589</v>
       </c>
       <c r="F40" t="n">
-        <v>2.236895780486857</v>
+        <v>2.220504217329016</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.08480155934495183</v>
+        <v>-0.1039686907052388</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.636819021684788</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.67486348727716</v>
+        <v>-18.69719895592514</v>
       </c>
       <c r="F41" t="n">
-        <v>2.457291606524474</v>
+        <v>2.441188074029151</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1496739199257045</v>
+        <v>-0.1698884355133295</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.719741574183779</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.40040954280605</v>
+        <v>-18.4186863975731</v>
       </c>
       <c r="F42" t="n">
-        <v>2.466430033907999</v>
+        <v>2.452447454473035</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3962150747382481</v>
+        <v>-0.4157618828809451</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.868635137629752</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.48530994338077</v>
+        <v>-17.50632308944174</v>
       </c>
       <c r="F43" t="n">
-        <v>2.813664089876257</v>
+        <v>2.798529387791222</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3977730587764135</v>
+        <v>-0.4165474210514487</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.078911620525629</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.03493472562539</v>
+        <v>-17.05592168708068</v>
       </c>
       <c r="F44" t="n">
-        <v>2.749695098191584</v>
+        <v>2.73487461137475</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7252901066650328</v>
+        <v>-0.7438549920946004</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.355017391859649</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.30748710283056</v>
+        <v>-16.32991421759844</v>
       </c>
       <c r="F45" t="n">
-        <v>2.698766040137269</v>
+        <v>2.685438075844392</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7697515671155345</v>
+        <v>-0.7888139600530877</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.677158258775158</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.83354573996008</v>
+        <v>-15.8556717317626</v>
       </c>
       <c r="F46" t="n">
-        <v>2.86056071865532</v>
+        <v>2.845635493415752</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9307607074630817</v>
+        <v>-0.9493517774983328</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.03542873494633</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.10498527142371</v>
+        <v>-15.12925840089227</v>
       </c>
       <c r="F47" t="n">
-        <v>2.836104296946976</v>
+        <v>2.821440917764242</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.262467292261053</v>
+        <v>-1.2819355465867</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.4014431792249</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.45293622069438</v>
+        <v>-14.47821745748176</v>
       </c>
       <c r="F48" t="n">
-        <v>2.70112265464878</v>
+        <v>2.686956782974032</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.300343324382167</v>
+        <v>-1.319366440411195</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.75743743146164</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.84830749085779</v>
+        <v>-13.87484558871797</v>
       </c>
       <c r="F49" t="n">
-        <v>3.09342041699826</v>
+        <v>3.076348054092649</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.487393055081907</v>
+        <v>-1.50819672429741</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.07655769197671</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.25317068058145</v>
+        <v>-13.27939456317343</v>
       </c>
       <c r="F50" t="n">
-        <v>3.148120058270991</v>
+        <v>3.131126249182431</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.44835180800788</v>
+        <v>-1.47118478416385</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.34251612747658</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.39733993612066</v>
+        <v>-12.42277828054213</v>
       </c>
       <c r="F51" t="n">
-        <v>3.132618771706388</v>
+        <v>3.114315732333655</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.45858998883011</v>
+        <v>-1.483635564166332</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.53895944508293</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.36861542368591</v>
+        <v>-12.38881684697069</v>
       </c>
       <c r="F52" t="n">
-        <v>3.093734632266461</v>
+        <v>3.07498645459711</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.5556039528873</v>
+        <v>-1.581827835479277</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.65794831275346</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.5733365798681</v>
+        <v>-11.59606481760134</v>
       </c>
       <c r="F53" t="n">
-        <v>3.366211639008464</v>
+        <v>3.346625553957242</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.699344345786611</v>
+        <v>-1.724926705539343</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.69774761477103</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.33411402234408</v>
+        <v>-11.35625310644944</v>
       </c>
       <c r="F54" t="n">
-        <v>3.025680842095169</v>
+        <v>3.007115956665602</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.768000381888622</v>
+        <v>-1.79514072567952</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.66081427193997</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.75480580620339</v>
+        <v>-10.77719364406274</v>
       </c>
       <c r="F55" t="n">
-        <v>2.906357593995678</v>
+        <v>2.887295201058125</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.158137914269217</v>
+        <v>-2.186770780584072</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.55909773247327</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.20372459498945</v>
+        <v>-10.22727764780172</v>
       </c>
       <c r="F56" t="n">
-        <v>3.125706035805957</v>
+        <v>3.104889274287612</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.430379259560069</v>
+        <v>-2.457598157168018</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.40124981800553</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.602761709948544</v>
+        <v>-9.623670117586782</v>
       </c>
       <c r="F57" t="n">
-        <v>3.145213567040128</v>
+        <v>3.122459144701208</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.912346204072531</v>
+        <v>-2.937627440859904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.20637025488369</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.468133559827075</v>
+        <v>-9.487706552575455</v>
       </c>
       <c r="F58" t="n">
-        <v>3.104051366905741</v>
+        <v>3.081244575355455</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.739684914195847</v>
+        <v>-2.767663165368616</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.98273525090267</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.870967442610265</v>
+        <v>-8.890095297062027</v>
       </c>
       <c r="F59" t="n">
-        <v>3.208344651342931</v>
+        <v>3.184385737142573</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.105051809599897</v>
+        <v>-3.131786292002702</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.7492488965507</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.755833731420127</v>
+        <v>-8.774176047701385</v>
       </c>
       <c r="F60" t="n">
-        <v>3.007089772059918</v>
+        <v>2.983994949847113</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.82299123717775</v>
+        <v>-2.851820488035231</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.50765590663166</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.316403678840434</v>
+        <v>-8.333135641872159</v>
       </c>
       <c r="F61" t="n">
-        <v>3.070273225574088</v>
+        <v>3.046916557304449</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.284023589446292</v>
+        <v>-3.312316055887262</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.27165629084556</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.942827909554621</v>
+        <v>-7.958538672964693</v>
       </c>
       <c r="F62" t="n">
-        <v>2.883603171656758</v>
+        <v>2.861686656699709</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.402299453318446</v>
+        <v>-3.427907997676862</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.03552279545871</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.752989518349594</v>
+        <v>-7.767469605292542</v>
       </c>
       <c r="F63" t="n">
-        <v>3.166527836066458</v>
+        <v>3.141914306724013</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.382320599181972</v>
+        <v>-3.408636127893841</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.805688295813251</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.488799939306404</v>
+        <v>-7.500936504040683</v>
       </c>
       <c r="F64" t="n">
-        <v>3.023874104303011</v>
+        <v>2.999391497988983</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.710217323853001</v>
+        <v>-3.7358520528171</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.568978746205641</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.2034270142653</v>
+        <v>-7.215471932879688</v>
       </c>
       <c r="F65" t="n">
-        <v>3.122563883123942</v>
+        <v>3.096929154159842</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.748263555911057</v>
+        <v>-3.773819731058106</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.326254439232333</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.98968207807128</v>
+        <v>-7.00098073542369</v>
       </c>
       <c r="F66" t="n">
-        <v>2.972238061895244</v>
+        <v>2.947493609524381</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.801549228476882</v>
+        <v>-3.826346050059111</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.061223077810284</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.084522719856744</v>
+        <v>-7.093307655063542</v>
       </c>
       <c r="F67" t="n">
-        <v>2.971347785302006</v>
+        <v>2.945896348577691</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.687174870851563</v>
+        <v>-3.711290892686022</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.775084365087155</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.775609834306217</v>
+        <v>-6.785180307683519</v>
       </c>
       <c r="F68" t="n">
-        <v>2.937936228449921</v>
+        <v>2.912772822388124</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.664381171604118</v>
+        <v>-3.687659286056707</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.454822017944679</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.949318508410239</v>
+        <v>-6.956047952070886</v>
       </c>
       <c r="F69" t="n">
-        <v>2.699577762913456</v>
+        <v>2.675304633444896</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.706302725303325</v>
+        <v>-3.729881962721274</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.106405268671416</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.701991815427192</v>
+        <v>-6.709467520349818</v>
       </c>
       <c r="F70" t="n">
-        <v>2.762813585638993</v>
+        <v>2.737519256548778</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.512039135737793</v>
+        <v>-3.535016127225023</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.722376342448698</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.620426768723238</v>
+        <v>-6.626423043424749</v>
       </c>
       <c r="F71" t="n">
-        <v>2.671298388775328</v>
+        <v>2.647836982082955</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.50427540015265</v>
+        <v>-3.52702982249157</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.31432406896296</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.791058751659454</v>
+        <v>-6.796321857401828</v>
       </c>
       <c r="F72" t="n">
-        <v>2.817356119277624</v>
+        <v>2.791433359651006</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.378628569780605</v>
+        <v>-3.398987100699489</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.880167273129798</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.936618974653764</v>
+        <v>-6.94189517269898</v>
       </c>
       <c r="F73" t="n">
-        <v>2.575253255128426</v>
+        <v>2.552053694492887</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.297351553739169</v>
+        <v>-3.315850977654528</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.435460309705405</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.209082889092926</v>
+        <v>-7.214385271743825</v>
       </c>
       <c r="F74" t="n">
-        <v>2.708140128971945</v>
+        <v>2.684259768588637</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.265890750010501</v>
+        <v>-3.283421343515573</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.980660584033976</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.377790303511408</v>
+        <v>-7.382909393922523</v>
       </c>
       <c r="F75" t="n">
-        <v>2.262451955633906</v>
+        <v>2.239828456323404</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.001897555509937</v>
+        <v>-3.019716179677526</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.531858359228284</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.814431695585814</v>
+        <v>-7.819760262842396</v>
       </c>
       <c r="F76" t="n">
-        <v>2.509268048806126</v>
+        <v>2.48517821157735</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.927690383003034</v>
+        <v>-2.944828207422853</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.08860612015919</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.136790376154794</v>
+        <v>-8.143192512244397</v>
       </c>
       <c r="F77" t="n">
-        <v>2.358418535463759</v>
+        <v>2.336030697604407</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.79932035363991</v>
+        <v>-2.816287978122787</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.664284004591114</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.48864601502618</v>
+        <v>-8.497195288781828</v>
       </c>
       <c r="F78" t="n">
-        <v>2.255408296705057</v>
+        <v>2.233151381874123</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.635404722061499</v>
+        <v>-2.650696531780635</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.255421418316574</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.949992582562924</v>
+        <v>-8.959955825025478</v>
       </c>
       <c r="F79" t="n">
-        <v>2.364257702531168</v>
+        <v>2.34113669571268</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.349913966294821</v>
+        <v>-2.36599131418446</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.872177230369032</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.348535373367907</v>
+        <v>-9.360396999742511</v>
       </c>
       <c r="F80" t="n">
-        <v>2.07672454752118</v>
+        <v>2.054965140198231</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.800704954387254</v>
+        <v>-1.818562855463368</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.510138044723395</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.989626166618708</v>
+        <v>-10.00351709993378</v>
       </c>
       <c r="F81" t="n">
-        <v>2.220556586540383</v>
+        <v>2.198587702371967</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.904251977562465</v>
+        <v>-1.920512617691889</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.177867545617451</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.64585166195454</v>
+        <v>-10.66082925640548</v>
       </c>
       <c r="F82" t="n">
-        <v>2.199766009627722</v>
+        <v>2.177194879528586</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.678867984142151</v>
+        <v>-1.696346208435855</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.873440215658927</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.24680145469261</v>
+        <v>-11.26240747967995</v>
       </c>
       <c r="F83" t="n">
-        <v>1.885053233918311</v>
+        <v>1.864812533725002</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.277942394219974</v>
+        <v>-1.296114510564289</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.6049838538515</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.13235172660412</v>
+        <v>-12.15174142711272</v>
       </c>
       <c r="F84" t="n">
-        <v>1.941795274434351</v>
+        <v>1.919983497900036</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.130575433433505</v>
+        <v>-1.147988196213001</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.373466353205362</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.76604536874935</v>
+        <v>-12.78742509928989</v>
       </c>
       <c r="F85" t="n">
-        <v>1.863110534355578</v>
+        <v>1.841560603878097</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8283134377265753</v>
+        <v>-0.844953754638409</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.185259661694227</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.56340588871899</v>
+        <v>-13.58655308014316</v>
       </c>
       <c r="F86" t="n">
-        <v>1.828127901162486</v>
+        <v>1.805609140274717</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6212062990733106</v>
+        <v>-0.6364588318839214</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.042315240163179</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.38871847525572</v>
+        <v>-14.41346292762658</v>
       </c>
       <c r="F87" t="n">
-        <v>1.843393526275938</v>
+        <v>1.820089227217666</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2307283668188306</v>
+        <v>-0.2456143151498731</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.94804926380873</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.58377078634563</v>
+        <v>-15.60937933070405</v>
       </c>
       <c r="F88" t="n">
-        <v>1.864969641359103</v>
+        <v>1.842712726528169</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04635713052345993</v>
+        <v>0.03158901291799292</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.903950665824304</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.52480623770037</v>
+        <v>-16.55558624168127</v>
       </c>
       <c r="F89" t="n">
-        <v>1.608517613295373</v>
+        <v>1.586993867423575</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2311288005287399</v>
+        <v>0.2174997132705031</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.909065851212368</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.92620633387873</v>
+        <v>-17.95819082972107</v>
       </c>
       <c r="F90" t="n">
-        <v>1.567774366851921</v>
+        <v>1.545857851894872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6906686302733249</v>
+        <v>0.677091912226455</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.962908310867862</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.07670553839825</v>
+        <v>-19.11376984774318</v>
       </c>
       <c r="F91" t="n">
-        <v>1.258966219724128</v>
+        <v>1.238908811770604</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6604515953146212</v>
+        <v>0.6474771231984706</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.059708351241864</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.36102117026306</v>
+        <v>-20.40070394017633</v>
       </c>
       <c r="F92" t="n">
-        <v>1.051675788831079</v>
+        <v>1.032875241950361</v>
       </c>
       <c r="G92" t="n">
-        <v>1.156073811691003</v>
+        <v>1.140611802034925</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.19742002568485</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.95503522584889</v>
+        <v>-21.99825291752943</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9118238098757616</v>
+        <v>0.8928399707552589</v>
       </c>
       <c r="G93" t="n">
-        <v>1.154253981596003</v>
+        <v>1.139420402476328</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.366977499051436</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.58866658983379</v>
+        <v>-23.63653204902313</v>
       </c>
       <c r="F94" t="n">
-        <v>1.014951879360038</v>
+        <v>0.9960596863594272</v>
       </c>
       <c r="G94" t="n">
-        <v>1.315668983331644</v>
+        <v>1.298413328186249</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.565026514852927</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.26195453912627</v>
+        <v>-25.31581627301713</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2934743466610394</v>
+        <v>0.2770958758060402</v>
       </c>
       <c r="G95" t="n">
-        <v>1.290662684903947</v>
+        <v>1.271705030389128</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.783948862181034</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.02897028446267</v>
+        <v>-27.08520172516788</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4555439635387665</v>
+        <v>0.4362197245443788</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9997909926693191</v>
+        <v>0.9813177533596437</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.017921787840766</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.9434970059168</v>
+        <v>-29.00326336838928</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1684744668064231</v>
+        <v>-0.1837531842227174</v>
       </c>
       <c r="G97" t="n">
-        <v>1.174966004691614</v>
+        <v>1.154476550744313</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.262689785373354</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.17260558005192</v>
+        <v>-31.23479401855012</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4431247958201526</v>
+        <v>-0.4610088815019504</v>
       </c>
       <c r="G98" t="n">
-        <v>1.046622159934173</v>
+        <v>1.023933199109462</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.50492449448946</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.35411054105452</v>
+        <v>-33.4202135781024</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4147406832592905</v>
+        <v>-0.4319832461018437</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6668144544957</v>
+        <v>0.6428555402953413</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.74841707026597</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.32613865658951</v>
+        <v>-35.39747861477408</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.485596226238712</v>
+        <v>-0.5036636041602939</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4744885257507441</v>
+        <v>0.4484086584900258</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.965507261132815</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.14921564269419</v>
+        <v>-37.22741596756781</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8419687095904955</v>
+        <v>-0.858242442022761</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09319372546649823</v>
+        <v>-0.1170217166384397</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.185061005641144</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.45516294220739</v>
+        <v>-39.53496052802772</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7526006503928734</v>
+        <v>-0.7701050592922611</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6293235268351808</v>
+        <v>-0.6530467795843884</v>
       </c>
     </row>
   </sheetData>
